--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,10 +35,10 @@
     <t xml:space="preserve">素数</t>
   </si>
   <si>
-    <t xml:space="preserve">エクシェル芸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変態シェル芸</t>
+    <t xml:space="preserve">エ"ク"シ"ェ"ル"芸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変,態,シ,ェ,ル,芸</t>
   </si>
 </sst>
 </file>
@@ -141,13 +141,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73828125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
@@ -197,6 +197,7 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -215,11 +216,11 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
